--- a/BWF_TOURNAMENTS/2022_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2022_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -4959,7 +4959,7 @@
         <v>600</v>
       </c>
       <c r="AF36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -5584,7 +5584,7 @@
         <v>600</v>
       </c>
       <c r="AF44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5987,7 +5987,7 @@
         <v>600</v>
       </c>
       <c r="AF49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -6176,7 +6176,7 @@
         <v>600</v>
       </c>
       <c r="AF52">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:32">
@@ -6404,7 +6404,7 @@
         <v>600</v>
       </c>
       <c r="AF55">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:32">
@@ -6742,7 +6742,7 @@
         <v>600</v>
       </c>
       <c r="AF59">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:32">
@@ -6990,7 +6990,7 @@
         <v>600</v>
       </c>
       <c r="AF63">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:32">
@@ -7162,7 +7162,7 @@
         <v>600</v>
       </c>
       <c r="AF65">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:32">
@@ -7334,7 +7334,7 @@
         <v>600</v>
       </c>
       <c r="AF67">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:32">
@@ -7985,7 +7985,7 @@
         <v>600</v>
       </c>
       <c r="AF76">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:32">
@@ -8637,7 +8637,7 @@
         <v>600</v>
       </c>
       <c r="AF84">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -9923,7 +9923,7 @@
         <v>600</v>
       </c>
       <c r="AF100">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:32">
@@ -10993,7 +10993,7 @@
         <v>600</v>
       </c>
       <c r="AF113">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:32">
@@ -11070,7 +11070,7 @@
         <v>600</v>
       </c>
       <c r="AF114">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:32">
@@ -11476,7 +11476,7 @@
         <v>600</v>
       </c>
       <c r="AF119">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:32">
@@ -11802,7 +11802,7 @@
         <v>600</v>
       </c>
       <c r="AF123">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:32">
@@ -11879,7 +11879,7 @@
         <v>600</v>
       </c>
       <c r="AF124">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:32">
@@ -12205,7 +12205,7 @@
         <v>600</v>
       </c>
       <c r="AF128">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:32">
@@ -12910,7 +12910,7 @@
         <v>600</v>
       </c>
       <c r="AF137">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:32">
